--- a/data/datasets/datasets_excel/demographics.xlsx
+++ b/data/datasets/datasets_excel/demographics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,31 +456,6 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>academic</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>academic-quantised</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>revenue</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>revenue-quantised</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>politics</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>religiosity</t>
         </is>
       </c>
@@ -507,31 +482,6 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>High school graduate</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>$50 000 - $69 999</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
           <t>24</t>
         </is>
       </c>
@@ -558,31 +508,6 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Less that $10 000</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
           <t>52</t>
         </is>
       </c>
@@ -609,31 +534,6 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Some college but no degree</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Less that $10 000</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
           <t>37</t>
         </is>
       </c>
@@ -660,31 +560,6 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Some college but no degree</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>$30 000 - $49 999</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
           <t>26</t>
         </is>
       </c>
@@ -711,31 +586,6 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Master's degree (5+)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>$30 000 - $49 999</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>
@@ -762,31 +612,6 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>$70 000 - $99 999</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
           <t>38</t>
         </is>
       </c>
@@ -813,31 +638,6 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>$10 000 - $19 999</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
           <t>50</t>
         </is>
       </c>
@@ -864,31 +664,6 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Master's degree (5+)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>$10 000 - $19 999</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
           <t>51</t>
         </is>
       </c>
@@ -915,31 +690,6 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>$10 000 - $19 999</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -966,31 +716,6 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Less that $10 000</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
           <t>58</t>
         </is>
       </c>
@@ -1017,31 +742,6 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>High school graduate</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Less that $10 000</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
           <t>99</t>
         </is>
       </c>
@@ -1068,31 +768,6 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>$10 000 - $19 999</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -1119,31 +794,6 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Less that $10 000</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
           <t>62</t>
         </is>
       </c>
@@ -1170,31 +820,6 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Less that $10 000</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
           <t>14</t>
         </is>
       </c>
@@ -1221,31 +846,6 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Master's degree (5+)</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>$20 000 - $29 999</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
           <t>6</t>
         </is>
       </c>
@@ -1272,31 +872,6 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>High school graduate</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>$20 000 - $29 999</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
           <t>50</t>
         </is>
       </c>
@@ -1323,31 +898,6 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Some college but no degree</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>$20 000 - $29 999</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
           <t>5</t>
         </is>
       </c>
@@ -1374,31 +924,6 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>High school graduate</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Less that $10 000</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
           <t>91</t>
         </is>
       </c>
@@ -1425,31 +950,6 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>High school graduate</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>$50 000 - $69 999</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
           <t>100</t>
         </is>
       </c>
@@ -1476,31 +976,6 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Less that $10 000</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
           <t>7</t>
         </is>
       </c>
@@ -1527,31 +1002,6 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>High school graduate</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>$20 000 - $29 999</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
           <t>56</t>
         </is>
       </c>
@@ -1578,31 +1028,6 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>High school graduate</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Less that $10 000</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
           <t>70</t>
         </is>
       </c>
@@ -1629,31 +1054,6 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>$100 000 - $149 999</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
@@ -1680,31 +1080,6 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Less that $10 000</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
           <t>27</t>
         </is>
       </c>
@@ -1731,31 +1106,6 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Master's degree (5+)</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>$10 000 - $19 999</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
           <t>43</t>
         </is>
       </c>
@@ -1782,31 +1132,6 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>$100 000 - $149 999</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
           <t>8</t>
         </is>
       </c>
@@ -1833,31 +1158,6 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>$20 000 - $29 999</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
           <t>28</t>
         </is>
       </c>
@@ -1884,31 +1184,6 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>$70 000 - $99 999</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
           <t>50</t>
         </is>
       </c>
@@ -1935,31 +1210,6 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>$50 000 - $69 999</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
           <t>8</t>
         </is>
       </c>
@@ -1986,31 +1236,6 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>High school graduate</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>$10 000 - $19 999</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
           <t>64</t>
         </is>
       </c>
@@ -2037,31 +1262,6 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>$10 000 - $19 999</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
           <t>100</t>
         </is>
       </c>
@@ -2088,31 +1288,6 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>High school graduate</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Less that $10 000</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
           <t>14</t>
         </is>
       </c>
@@ -2139,31 +1314,6 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Some college but no degree</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>More than $150 000</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
           <t>38</t>
         </is>
       </c>
@@ -2190,31 +1340,6 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>$10 000 - $19 999</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
           <t>12</t>
         </is>
       </c>
@@ -2241,31 +1366,6 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Some college but no degree</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>$100 000 - $149 999</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
           <t>18</t>
         </is>
       </c>
@@ -2292,23 +1392,6 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Master's degree (5+)</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -2335,31 +1418,6 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Master's degree (5+)</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>$30 000 - $49 999</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
           <t>50</t>
         </is>
       </c>
@@ -2386,31 +1444,6 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Master's degree (5+)</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>$30 000 - $49 999</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -2437,31 +1470,6 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>$20 000 - $29 999</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
           <t>64</t>
         </is>
       </c>
@@ -2488,31 +1496,6 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Some college but no degree</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>$70 000 - $99 999</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
           <t>61</t>
         </is>
       </c>
@@ -2539,31 +1522,6 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>$10 000 - $19 999</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
           <t>66</t>
         </is>
       </c>
@@ -2590,31 +1548,6 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>$100 000 - $149 999</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
           <t>15</t>
         </is>
       </c>
@@ -2641,31 +1574,6 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>$10 000 - $19 999</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -2692,31 +1600,6 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>High school graduate</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>$20 000 - $29 999</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
           <t>9</t>
         </is>
       </c>
@@ -2743,31 +1626,6 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Master's degree (5+)</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>$10 000 - $19 999</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
           <t>57</t>
         </is>
       </c>
@@ -2794,23 +1652,6 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>High school graduate</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -2837,31 +1678,6 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>High school graduate</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>$70 000 - $99 999</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
           <t>52</t>
         </is>
       </c>
@@ -2888,31 +1704,6 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>High school graduate</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>$10 000 - $19 999</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
           <t>85</t>
         </is>
       </c>
@@ -2939,31 +1730,6 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>High school graduate</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>$30 000 - $49 999</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
           <t>50</t>
         </is>
       </c>
@@ -2990,31 +1756,6 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Master's degree (5+)</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>$50 000 - $69 999</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
           <t>78</t>
         </is>
       </c>
@@ -3041,31 +1782,6 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>$10 000 - $19 999</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
           <t>0</t>
         </is>
       </c>
@@ -3091,31 +1807,6 @@
         </is>
       </c>
       <c r="F53" t="inlineStr">
-        <is>
-          <t>Bachelor's degree (3+)</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Less that $10 000</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>97</t>
         </is>

--- a/data/datasets/datasets_excel/demographics.xlsx
+++ b/data/datasets/datasets_excel/demographics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,85 +540,85 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5521563</v>
+        <v>5521551</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5521551</v>
+        <v>5521552</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5521552</v>
+        <v>5521568</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5521547</v>
+        <v>5521573</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -633,96 +633,96 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>5521561</v>
+        <v>5521577</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>5521566</v>
+        <v>5521582</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>5521554</v>
+        <v>5521587</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>5521548</v>
+        <v>5521584</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -737,18 +737,18 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>56</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>5521570</v>
+        <v>5521592</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -763,18 +763,18 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>5521560</v>
+        <v>5521591</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -789,18 +789,18 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>5521568</v>
+        <v>5521597</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>5521573</v>
+        <v>5521601</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -841,33 +841,33 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>28</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>5521577</v>
+        <v>5521600</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -878,33 +878,33 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>5521578</v>
+        <v>5521608</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>5521585</v>
+        <v>5521604</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -919,18 +919,18 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>5521582</v>
+        <v>5521605</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -956,59 +956,59 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>5521587</v>
+        <v>5521606</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>5521584</v>
+        <v>5521618</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>5521592</v>
+        <v>5521596</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1023,18 +1023,18 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>5521591</v>
+        <v>5521617</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1049,44 +1049,44 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>5521597</v>
+        <v>5521624</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>5521598</v>
+        <v>5521623</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1101,70 +1101,70 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>5521603</v>
+        <v>5521630</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>5521601</v>
+        <v>5521583</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>61</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>5521600</v>
+        <v>5521635</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1179,18 +1179,18 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>66</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>5521608</v>
+        <v>5521602</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1205,18 +1205,18 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>5521604</v>
+        <v>5521621</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1231,18 +1231,18 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>5521605</v>
+        <v>5521610</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1257,44 +1257,44 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>5521606</v>
+        <v>5521593</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>57</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>5521618</v>
+        <v>5522038</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1309,18 +1309,18 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>5521596</v>
+        <v>5522048</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1335,18 +1335,18 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>85</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>5521617</v>
+        <v>5522396</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1361,18 +1361,18 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>5521626</v>
+        <v>5522400</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1398,33 +1398,33 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>5521624</v>
+        <v>5569500</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>5521623</v>
+        <v>5569503</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1439,70 +1439,70 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>76</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>5521630</v>
+        <v>5569507</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>91</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>5521583</v>
+        <v>5569508</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>5521635</v>
+        <v>5569505</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1517,59 +1517,59 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>5521602</v>
+        <v>5569514</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>5521621</v>
+        <v>5569518</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1580,7 +1580,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>5521610</v>
+        <v>5569521</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1595,18 +1595,18 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>61</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>5521593</v>
+        <v>5569520</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1621,18 +1621,18 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>5522038</v>
+        <v>5569510</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1647,18 +1647,18 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>5522033</v>
+        <v>5569523</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1673,18 +1673,18 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>5522048</v>
+        <v>5569528</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1699,18 +1699,18 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>5522396</v>
+        <v>5569530</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1725,44 +1725,44 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>5522394</v>
+        <v>5569525</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>5522400</v>
+        <v>5569519</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1777,38 +1777,1338 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>5522616</v>
+        <v>5569526</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>5569509</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>5569524</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>5569531</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>5569511</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>5569539</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>5569535</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>5569555</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>5569547</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>5569550</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>5569553</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>5569556</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>5569551</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>5569560</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>5569557</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>5569572</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>5569568</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>5522394</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>5522033</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>5521626</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>5521603</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>5521598</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>5521585</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>5521578</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>5521560</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>5521570</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>5521548</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>5521554</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>5521566</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>5521561</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>5521547</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>5521563</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>5522616</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
         <is>
           <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>5569571</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>5569561</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>5569567</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>5569565</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>5569586</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>5569580</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>5569587</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>5569578</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>5569574</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>5569592</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>5569590</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>5569591</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>5569606</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>5569576</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>5569573</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>5569678</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>5569701</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>5569715</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>25</t>
         </is>
       </c>
     </row>
